--- a/testdata/2.xlsx
+++ b/testdata/2.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>На входе:</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>105-115кв,114-116кв</t>
+  </si>
+  <si>
+    <t>130-141</t>
+  </si>
+  <si>
+    <t>117-129</t>
+  </si>
+  <si>
+    <t>105-116</t>
   </si>
 </sst>
 </file>
